--- a/data/turm/MEC-1NA.xlsx
+++ b/data/turm/MEC-1NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[J. Paulo S.-T. NãoMetalicos-1NA, J. Paulo S.-T. NãoMetalicos-1NA, J. Paulo S.-T. NãoMetalicos-1NA, J. Paulo S.-T. NãoMetalicos-1NA]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tiago P.-M.T.F.-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Suzanny-Metalografia-1NA, Suzanny-Metalografia-1NA, Suzanny-Metalografia-1NA, Suzanny-Metalografia-1NA]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anderson-Metrologia 1-1NA, Anderson-Metrologia 1-1NA, Anderson-Metrologia 1-1NA, Anderson-Metrologia 1-1NA]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Comandos Eletricos-1NA, Emerson-Comandos Eletricos-1NA, Emerson-Comandos Eletricos-1NA, Emerson-Comandos Eletricos-1NA]</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anderson-Tornearia-1NA, Anderson-Tornearia-1NA, Anderson-Tornearia-1NA, Anderson-Tornearia-1NA]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-T. M. Metalicos-1NA, Joel L.-T. M. Metalicos-1NA, Joel L.-T. M. Metalicos-1NA, Joel L.-T. M. Metalicos-1NA]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Humberto-Desenho tecnico mecanico – T1-1NA, Humberto-Desenho tecnico mecanico – T1-1NA, Humberto-Desenho tecnico mecanico – T1-1NA, Humberto-Desenho tecnico mecanico – T1-1NA]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aselmo-Manut. Mot. End.-1NA, Aselmo-Manut. Mot. End.-1NA, Aselmo-Manut. Mot. End.-1NA, Aselmo-Manut. Mot. End.-1NA]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rachel-Trat. Termicos-1NA, Rachel-Trat. Termicos-1NA, Rachel-Trat. Termicos-1NA, Rachel-Trat. Termicos-1NA]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Elcio D.-Desenho tecnico mecanico – T2-1NA, Elcio D.-Desenho tecnico mecanico – T2-1NA, Elcio D.-Desenho tecnico mecanico – T2-1NA, Elcio D.-Desenho tecnico mecanico – T2-1NA]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-E. D. N. D.-1NA, Gisele-E. D. N. D.-1NA, Gisele-E. D. N. D.-1NA, Gisele-E. D. N. D.-1NA]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-M.T.R.M.-</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor S.-Ajustagem-1NA, Victor S.-Ajustagem-1NA, Victor S.-Ajustagem-1NA, Victor S.-Ajustagem-1NA]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Valmir-Caldeiraria-1NA, Valmir-Caldeiraria-1NA, Valmir-Caldeiraria-1NA, Valmir-Caldeiraria-1NA]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tiago P.-M.T.F.-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Clesidson-Elet. Digi. Básica-1NA, Clesidson-Elet. Digi. Básica-1NA, Clesidson-Elet. Digi. Básica-1NA, Clesidson-Elet. Digi. Básica-1NA]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1NA.xlsx
+++ b/data/turm/MEC-1NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[J. Paulo S.-T. NãoMetalicos-1NA, J. Paulo S.-T. NãoMetalicos-1NA, J. Paulo S.-T. NãoMetalicos-1NA, J. Paulo S.-T. NãoMetalicos-1NA]</t>
+          <t>[-, Gisele-E. D. N. D.-1NA, Joel L.-T. M. Metalicos-1NA, Victor-Ajustagem-1NA]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tiago P.-M.T.F.-</t>
+          <t>Gilberto-M.T.R.M.-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Suzanny-Metalografia-1NA, Suzanny-Metalografia-1NA, Suzanny-Metalografia-1NA, Suzanny-Metalografia-1NA]</t>
+          <t>[Suzanny-Metalografia-1NA, Rachel-Trat. Termicos-1NA, Anderson-Tornearia-1NA, J. Paulo S.-Tec. Mat. Não Metal.-1NA]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Anderson-Metrologia 1-1NA, Anderson-Metrologia 1-1NA, Anderson-Metrologia 1-1NA, Anderson-Metrologia 1-1NA]</t>
+          <t>[J. Paulo S.-Tec. Mat. Não Metal.-1NA, Anderson-Tornearia-1NA, Rachel-Trat. Termicos-1NA, Suzanny-Metalografia-1NA]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Emerson-Comandos Eletricos-1NA, Emerson-Comandos Eletricos-1NA, Emerson-Comandos Eletricos-1NA, Emerson-Comandos Eletricos-1NA]</t>
+          <t>[Anderson-Metrologia 1-1NA, Valmir-Tec. Mat. Não Metal.-1NA, Emerson-Comandos Eletricos-1NA, Clesidson-Elet. Dig. Bas.-1NA]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Anderson-Tornearia-1NA, Anderson-Tornearia-1NA, Anderson-Tornearia-1NA, Anderson-Tornearia-1NA]</t>
+          <t>[Aselmo-Manut. Mot. End.-1NA, Gisele-E. D. N. D.-1NA, Joel L.-T. M. Metalicos-1NA, Victor-Ajustagem-1NA]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Joel L.-T. M. Metalicos-1NA, Joel L.-T. M. Metalicos-1NA, Joel L.-T. M. Metalicos-1NA, Joel L.-T. M. Metalicos-1NA]</t>
+          <t>[Anderson-Tornearia-1NA, J. Paulo S.-Tec. Mat. Não Metal.-1NA, Suzanny-Metalografia-1NA, Aselmo-Manut. Mot. End.-1NA]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Humberto-Desenho tecnico mecanico – T1-1NA, Elcio Dec.-Desenho tecnico mecanico – T2-1NA]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Humberto-Desenho tecnico mecanico – T1-1NA, Humberto-Desenho tecnico mecanico – T1-1NA, Humberto-Desenho tecnico mecanico – T1-1NA, Humberto-Desenho tecnico mecanico – T1-1NA]</t>
+          <t>[J. Paulo S.-Tec. Mat. Não Metal.-1NA, Anderson-Tornearia-1NA, Rachel-Trat. Termicos-1NA, Suzanny-Metalografia-1NA]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anderson-Metrologia 1-1NA, Valmir-Tec. Mat. Não Metal.-1NA, Emerson-Comandos Eletricos-1NA, Clesidson-Elet. Dig. Bas.-1NA]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Aselmo-Manut. Mot. End.-1NA, Aselmo-Manut. Mot. End.-1NA, Aselmo-Manut. Mot. End.-1NA, Aselmo-Manut. Mot. End.-1NA]</t>
+          <t>[Elcio Dec.-Desenho tecnico mecanico – T2-1NA, Elcio Dec.-Desenho tecnico mecanico – T2-1NA]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Rachel-Trat. Termicos-1NA, Rachel-Trat. Termicos-1NA, Rachel-Trat. Termicos-1NA, Rachel-Trat. Termicos-1NA]</t>
+          <t>[Victor-Ajustagem-1NA, Aselmo-Manut. Mot. End.-1NA, Gisele-E. D. N. D.-1NA, Rachel-Trat. Termicos-1NA]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Elcio D.-Desenho tecnico mecanico – T2-1NA, Elcio D.-Desenho tecnico mecanico – T2-1NA, Elcio D.-Desenho tecnico mecanico – T2-1NA, Elcio D.-Desenho tecnico mecanico – T2-1NA]</t>
+          <t>Tiago P.-M.T.F.-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Gisele-E. D. N. D.-1NA, Gisele-E. D. N. D.-1NA, Gisele-E. D. N. D.-1NA, Gisele-E. D. N. D.-1NA]</t>
+          <t>[Humberto-Desenho tecnico mecanico – T1-1NA, Elcio Dec.-Desenho tecnico mecanico – T2-1NA]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R.M.-</t>
+          <t>[Anderson-Metrologia 1-1NA, Valmir-Tec. Mat. Não Metal.-1NA, Emerson-Comandos Eletricos-1NA, Clesidson-Elet. Dig. Bas.-1NA]</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Victor S.-Ajustagem-1NA, Victor S.-Ajustagem-1NA, Victor S.-Ajustagem-1NA, Victor S.-Ajustagem-1NA]</t>
+          <t>[Joel L.-T. M. Metalicos-1NA, -, -, -]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Valmir-Caldeiraria-1NA, Valmir-Caldeiraria-1NA, Valmir-Caldeiraria-1NA, Valmir-Caldeiraria-1NA]</t>
+          <t>[Victor-Ajustagem-1NA, Aselmo-Manut. Mot. End.-1NA, Gisele-E. D. N. D.-1NA, Joel L.-T. M. Metalicos-1NA]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Humberto-Desenho tecnico mecanico – T1-1NA, Humberto-Desenho tecnico mecanico – T1-1NA]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Clesidson-Elet. Digi. Básica-1NA, Clesidson-Elet. Digi. Básica-1NA, Clesidson-Elet. Digi. Básica-1NA, Clesidson-Elet. Digi. Básica-1NA]</t>
+          <t>[Anderson-Metrologia 1-1NA, Valmir-Tec. Mat. Não Metal.-1NA, Emerson-Comandos Eletricos-1NA, Clesidson-Elet. Dig. Bas.-1NA]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1NA.xlsx
+++ b/data/turm/MEC-1NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[-, Gisele-E. D. N. D.-1NA, Joel L.-T. M. Metalicos-1NA, Victor-Ajustagem-1NA]</t>
+          <t>[Aselmo-Manut. Mot. End.-1NA, Anderson-Tornearia-1NA, Valmir-Tec. Mat. Não Metal.-1NA, Anderson-Metrologia 1-1NA]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R.M.-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Suzanny-Metalografia-1NA, Rachel-Trat. Termicos-1NA, Anderson-Tornearia-1NA, J. Paulo S.-Tec. Mat. Não Metal.-1NA]</t>
+          <t>[Elcio Dec.-Desenho tecnico mecanico – T2-1NA, Elcio Dec.-Desenho tecnico mecanico – T2-1NA]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[J. Paulo S.-Tec. Mat. Não Metal.-1NA, Anderson-Tornearia-1NA, Rachel-Trat. Termicos-1NA, Suzanny-Metalografia-1NA]</t>
+          <t>[Rachel-Trat. Termicos-1NA, Emerson-Comandos Eletricos-1NA, Victor-Ajustagem-1NA, J. Paulo S.-Tec. Mat. Não Metal.-1NA]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Anderson-Metrologia 1-1NA, Valmir-Tec. Mat. Não Metal.-1NA, Emerson-Comandos Eletricos-1NA, Clesidson-Elet. Dig. Bas.-1NA]</t>
+          <t>[Gisele-E. D. N. D.-1NA, Suzanny-Metalografia-1NA, Clesidson-Elet. Dig. Bas.-1NA, Joel L.-T. M. Metalicos-1NA]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Aselmo-Manut. Mot. End.-1NA, Gisele-E. D. N. D.-1NA, Joel L.-T. M. Metalicos-1NA, Victor-Ajustagem-1NA]</t>
+          <t>[Aselmo-Manut. Mot. End.-1NA, Anderson-Tornearia-1NA, Valmir-Tec. Mat. Não Metal.-1NA, Anderson-Metrologia 1-1NA]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Anderson-Tornearia-1NA, J. Paulo S.-Tec. Mat. Não Metal.-1NA, Suzanny-Metalografia-1NA, Aselmo-Manut. Mot. End.-1NA]</t>
+          <t>Gilberto-M.T.R.M.-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Humberto-Desenho tecnico mecanico – T1-1NA, Elcio Dec.-Desenho tecnico mecanico – T2-1NA]</t>
+          <t>[Elcio Dec.-Desenho tecnico mecanico – T2-1NA, Elcio Dec.-Desenho tecnico mecanico – T2-1NA]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[J. Paulo S.-Tec. Mat. Não Metal.-1NA, Anderson-Tornearia-1NA, Rachel-Trat. Termicos-1NA, Suzanny-Metalografia-1NA]</t>
+          <t>[Rachel-Trat. Termicos-1NA, Emerson-Comandos Eletricos-1NA, Victor-Ajustagem-1NA, J. Paulo S.-Tec. Mat. Não Metal.-1NA]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Anderson-Metrologia 1-1NA, Valmir-Tec. Mat. Não Metal.-1NA, Emerson-Comandos Eletricos-1NA, Clesidson-Elet. Dig. Bas.-1NA]</t>
+          <t>[Gisele-E. D. N. D.-1NA, Suzanny-Metalografia-1NA, Clesidson-Elet. Dig. Bas.-1NA, Joel L.-T. M. Metalicos-1NA]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Desenho tecnico mecanico – T2-1NA, Elcio Dec.-Desenho tecnico mecanico – T2-1NA]</t>
+          <t>[Humberto-Desenho tecnico mecanico – T1-1NA, Humberto-Desenho tecnico mecanico – T1-1NA]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Victor-Ajustagem-1NA, Aselmo-Manut. Mot. End.-1NA, Gisele-E. D. N. D.-1NA, Rachel-Trat. Termicos-1NA]</t>
+          <t>Tiago P.-M.T.F.-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tiago P.-M.T.F.-</t>
+          <t>[Valmir-Tec. Mat. Não Metal.-1NA, Anderson-Tornearia-1NA, Aselmo-Manut. Mot. End.-1NA, Anderson-Metrologia 1-1NA]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Humberto-Desenho tecnico mecanico – T1-1NA, Elcio Dec.-Desenho tecnico mecanico – T2-1NA]</t>
+          <t>[Rachel-Trat. Termicos-1NA, Emerson-Comandos Eletricos-1NA, Victor-Ajustagem-1NA, J. Paulo S.-Tec. Mat. Não Metal.-1NA]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Anderson-Metrologia 1-1NA, Valmir-Tec. Mat. Não Metal.-1NA, Emerson-Comandos Eletricos-1NA, Clesidson-Elet. Dig. Bas.-1NA]</t>
+          <t>[Gisele-E. D. N. D.-1NA, Suzanny-Metalografia-1NA, Clesidson-Elet. Dig. Bas.-1NA, Joel L.-T. M. Metalicos-1NA]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Joel L.-T. M. Metalicos-1NA, -, -, -]</t>
+          <t>[Humberto-Desenho tecnico mecanico – T1-1NA, Humberto-Desenho tecnico mecanico – T1-1NA]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Victor-Ajustagem-1NA, Aselmo-Manut. Mot. End.-1NA, Gisele-E. D. N. D.-1NA, Joel L.-T. M. Metalicos-1NA]</t>
+          <t>Tiago P.-M.T.F.-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tiago P.-M.T.F.-</t>
+          <t>[Valmir-Tec. Mat. Não Metal.-1NA, Anderson-Tornearia-1NA, Aselmo-Manut. Mot. End.-1NA, Anderson-Metrologia 1-1NA]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Humberto-Desenho tecnico mecanico – T1-1NA, Humberto-Desenho tecnico mecanico – T1-1NA]</t>
+          <t>[Rachel-Trat. Termicos-1NA, Emerson-Comandos Eletricos-1NA, Victor-Ajustagem-1NA, J. Paulo S.-Tec. Mat. Não Metal.-1NA]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Anderson-Metrologia 1-1NA, Valmir-Tec. Mat. Não Metal.-1NA, Emerson-Comandos Eletricos-1NA, Clesidson-Elet. Dig. Bas.-1NA]</t>
+          <t>[Gisele-E. D. N. D.-1NA, Suzanny-Metalografia-1NA, Clesidson-Elet. Dig. Bas.-1NA, Joel L.-T. M. Metalicos-1NA]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1NA.xlsx
+++ b/data/turm/MEC-1NA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Aselmo-Manut. Mot. End.-1NA, Anderson-Tornearia-1NA, Valmir-Tec. Mat. Não Metal.-1NA, Anderson-Metrologia 1-1NA]</t>
+          <t>[Humberto-Desenho tecnico mecanico – T1, Elcio Dec.-Desenho tecnico mecanico – T2]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-T. M. Metalicos, Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Rachel-Trat. Termicos]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Desenho tecnico mecanico – T2-1NA, Elcio Dec.-Desenho tecnico mecanico – T2-1NA]</t>
+          <t>[Emerson-Comandos Eletricos, Valmir-Tec. Mat. Não Metal., Victor-Ajustagem, Suzanny-Metalografia]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Rachel-Trat. Termicos-1NA, Emerson-Comandos Eletricos-1NA, Victor-Ajustagem-1NA, J. Paulo S.-Tec. Mat. Não Metal.-1NA]</t>
+          <t>[Anderson-Tornearia, J. Paulo S.-Tec. Mat. Não Metal., Anderson-Metrologia 1, Aselmo-Manut. Mot. End.]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Gisele-E. D. N. D.-1NA, Suzanny-Metalografia-1NA, Clesidson-Elet. Dig. Bas.-1NA, Joel L.-T. M. Metalicos-1NA]</t>
+          <t>Tiago P.-M.T</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Aselmo-Manut. Mot. End.-1NA, Anderson-Tornearia-1NA, Valmir-Tec. Mat. Não Metal.-1NA, Anderson-Metrologia 1-1NA]</t>
+          <t>[Humberto-Desenho tecnico mecanico – T1, Elcio Dec.-Desenho tecnico mecanico – T2]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R.M.-</t>
+          <t>[Joel L.-T. M. Metalicos, Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Rachel-Trat. Termicos]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Desenho tecnico mecanico – T2-1NA, Elcio Dec.-Desenho tecnico mecanico – T2-1NA]</t>
+          <t>[Humberto-Desenho tecnico mecanico – T1, Elcio Dec.-Desenho tecnico mecanico – T2]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Rachel-Trat. Termicos-1NA, Emerson-Comandos Eletricos-1NA, Victor-Ajustagem-1NA, J. Paulo S.-Tec. Mat. Não Metal.-1NA]</t>
+          <t>[Anderson-Tornearia, J. Paulo S.-Tec. Mat. Não Metal., Anderson-Metrologia 1, Aselmo-Manut. Mot. End.]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Gisele-E. D. N. D.-1NA, Suzanny-Metalografia-1NA, Clesidson-Elet. Dig. Bas.-1NA, Joel L.-T. M. Metalicos-1NA]</t>
+          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Suzanny-Metalografia, Victor-Ajustagem]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Humberto-Desenho tecnico mecanico – T1-1NA, Humberto-Desenho tecnico mecanico – T1-1NA]</t>
+          <t>Tiago P.-M.T</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tiago P.-M.T.F.-</t>
+          <t>[Joel L.-T. M. Metalicos, Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Rachel-Trat. Termicos]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Valmir-Tec. Mat. Não Metal.-1NA, Anderson-Tornearia-1NA, Aselmo-Manut. Mot. End.-1NA, Anderson-Metrologia 1-1NA]</t>
+          <t>Gilberto-M.T.R</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Rachel-Trat. Termicos-1NA, Emerson-Comandos Eletricos-1NA, Victor-Ajustagem-1NA, J. Paulo S.-Tec. Mat. Não Metal.-1NA]</t>
+          <t>[Anderson-Tornearia, J. Paulo S.-Tec. Mat. Não Metal., Anderson-Metrologia 1, Aselmo-Manut. Mot. End.]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Gisele-E. D. N. D.-1NA, Suzanny-Metalografia-1NA, Clesidson-Elet. Dig. Bas.-1NA, Joel L.-T. M. Metalicos-1NA]</t>
+          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Suzanny-Metalografia, Victor-Ajustagem]</t>
         </is>
       </c>
     </row>
@@ -1081,31 +1081,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Humberto-Desenho tecnico mecanico – T1-1NA, Humberto-Desenho tecnico mecanico – T1-1NA]</t>
+          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tiago P.-M.T.F.-</t>
+          <t>[Joel L.-T. M. Metalicos, Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Rachel-Trat. Termicos]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Valmir-Tec. Mat. Não Metal.-1NA, Anderson-Tornearia-1NA, Aselmo-Manut. Mot. End.-1NA, Anderson-Metrologia 1-1NA]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Rachel-Trat. Termicos-1NA, Emerson-Comandos Eletricos-1NA, Victor-Ajustagem-1NA, J. Paulo S.-Tec. Mat. Não Metal.-1NA]</t>
+          <t>[Anderson-Tornearia, J. Paulo S.-Tec. Mat. Não Metal., Anderson-Metrologia 1, Aselmo-Manut. Mot. End.]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Gisele-E. D. N. D.-1NA, Suzanny-Metalografia-1NA, Clesidson-Elet. Dig. Bas.-1NA, Joel L.-T. M. Metalicos-1NA]</t>
+          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Suzanny-Metalografia, Victor-Ajustagem]</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/turm/MEC-1NA.xlsx
+++ b/data/turm/MEC-1NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Tiago P.-M.T</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Valmir-Tec. Mat. Não Metal., Aselmo-Manut. Mot. End.]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>[Humberto-Desenho tecnico mecanico – T1, Elcio Dec.-Desenho tecnico mecanico – T2]</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[Joel L.-T. M. Metalicos, Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Rachel-Trat. Termicos]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[Emerson-Comandos Eletricos, Valmir-Tec. Mat. Não Metal., Victor-Ajustagem, Suzanny-Metalografia]</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Anderson-Tornearia, J. Paulo S.-Tec. Mat. Não Metal., Anderson-Metrologia 1, Aselmo-Manut. Mot. End.]</t>
+          <t>[Suzanny-Metalografia, -, Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tiago P.-M.T</t>
+          <t>[-, Anderson-Tornearia, Victor-Ajustagem, Anderson-Metrologia 1]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Tiago P.-M.T</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Valmir-Tec. Mat. Não Metal., Aselmo-Manut. Mot. End.]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>[Humberto-Desenho tecnico mecanico – T1, Elcio Dec.-Desenho tecnico mecanico – T2]</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>[Joel L.-T. M. Metalicos, Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Rachel-Trat. Termicos]</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[Humberto-Desenho tecnico mecanico – T1, Elcio Dec.-Desenho tecnico mecanico – T2]</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Anderson-Tornearia, J. Paulo S.-Tec. Mat. Não Metal., Anderson-Metrologia 1, Aselmo-Manut. Mot. End.]</t>
+          <t>[Suzanny-Metalografia, Rachel-Trat. Termicos, Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Suzanny-Metalografia, Victor-Ajustagem]</t>
+          <t>[J. Paulo S.-Tec. Mat. Não Metal., Anderson-Tornearia, Victor-Ajustagem, Anderson-Metrologia 1]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tiago P.-M.T</t>
+          <t>[J. Paulo S.-Tec. Mat. Não Metal., -, -, Rachel-Trat. Termicos]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Joel L.-T. M. Metalicos, Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Rachel-Trat. Termicos]</t>
+          <t>[Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Valmir-Tec. Mat. Não Metal., Aselmo-Manut. Mot. End.]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R</t>
+          <t>[Humberto-Desenho tecnico mecanico – T1, Elcio Dec.-Desenho tecnico mecanico – T2]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Anderson-Tornearia, J. Paulo S.-Tec. Mat. Não Metal., Anderson-Metrologia 1, Aselmo-Manut. Mot. End.]</t>
+          <t>[Suzanny-Metalografia, Rachel-Trat. Termicos, Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Suzanny-Metalografia, Victor-Ajustagem]</t>
+          <t>[J. Paulo S.-Tec. Mat. Não Metal., Anderson-Tornearia, Victor-Ajustagem, Anderson-Metrologia 1]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
+          <t>Gilberto-M.T.R</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Joel L.-T. M. Metalicos, Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Rachel-Trat. Termicos]</t>
+          <t>[Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Valmir-Tec. Mat. Não Metal., Aselmo-Manut. Mot. End.]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Humberto-Desenho tecnico mecanico – T1, Elcio Dec.-Desenho tecnico mecanico – T2]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Anderson-Tornearia, J. Paulo S.-Tec. Mat. Não Metal., Anderson-Metrologia 1, Aselmo-Manut. Mot. End.]</t>
+          <t>[Suzanny-Metalografia, Rachel-Trat. Termicos, Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Suzanny-Metalografia, Victor-Ajustagem]</t>
+          <t>[J. Paulo S.-Tec. Mat. Não Metal., Anderson-Tornearia, Victor-Ajustagem, Anderson-Metrologia 1]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1NA.xlsx
+++ b/data/turm/MEC-1NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>[Clesidson-Elet. Dig. Bas., Joel L.-T. M. Metalicos, Victor-Ajustagem, Aselmo-Manut. Mot. End.]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[Rachel-Trat. Termicos, Anderson-Tornearia, Gisele-E. D. N. D., Anderson-Metrologia 1]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[J. Paulo S.-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Suzanny-Metalografia, Victor-Ajustagem]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>Tiago P.-M.T</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Valmir-Tec. Mat. Não Metal., Aselmo-Manut. Mot. End.]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[Humberto-Desenho tecnico mecanico – T1, Elcio Dec.-Desenho tecnico mecanico – T2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[Suzanny-Metalografia, -, Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[-, Anderson-Tornearia, Victor-Ajustagem, Anderson-Metrologia 1]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>[Clesidson-Elet. Dig. Bas., Joel L.-T. M. Metalicos, Victor-Ajustagem, Aselmo-Manut. Mot. End.]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[Rachel-Trat. Termicos, Anderson-Tornearia, Gisele-E. D. N. D., Anderson-Metrologia 1]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Rachel-Trat. Termicos, Victor-Ajustagem]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>Tiago P.-M.T</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>[Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Valmir-Tec. Mat. Não Metal., Aselmo-Manut. Mot. End.]</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[Humberto-Desenho tecnico mecanico – T1, Elcio Dec.-Desenho tecnico mecanico – T2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[Suzanny-Metalografia, Rachel-Trat. Termicos, Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[J. Paulo S.-Tec. Mat. Não Metal., Anderson-Tornearia, Victor-Ajustagem, Anderson-Metrologia 1]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[J. Paulo S.-Tec. Mat. Não Metal., -, -, Rachel-Trat. Termicos]</t>
+          <t>[Clesidson-Elet. Dig. Bas., J. Paulo S.-Tec. Mat. Não Metal., Joel L.-T. M. Metalicos, Aselmo-Manut. Mot. End.]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Valmir-Tec. Mat. Não Metal., Aselmo-Manut. Mot. End.]</t>
+          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Humberto-Desenho tecnico mecanico – T1, Elcio Dec.-Desenho tecnico mecanico – T2]</t>
+          <t>[Valmir-Tec. Mat. Não Metal., Anderson-Tornearia, Gisele-E. D. N. D., Anderson-Metrologia 1]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Suzanny-Metalografia, Rachel-Trat. Termicos, Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos]</t>
+          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Rachel-Trat. Termicos, Suzanny-Metalografia]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[J. Paulo S.-Tec. Mat. Não Metal., Anderson-Tornearia, Victor-Ajustagem, Anderson-Metrologia 1]</t>
+          <t>[-, -, Suzanny-Metalografia, -]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>[Clesidson-Elet. Dig. Bas., J. Paulo S.-Tec. Mat. Não Metal., Joel L.-T. M. Metalicos, Aselmo-Manut. Mot. End.]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[Valmir-Tec. Mat. Não Metal., Anderson-Tornearia, Gisele-E. D. N. D., Anderson-Metrologia 1]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[J. Paulo S.-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Suzanny-Metalografia, -]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Gilberto-M.T.R</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>[Gisele-E. D. N. D., Clesidson-Elet. Dig. Bas., Valmir-Tec. Mat. Não Metal., Aselmo-Manut. Mot. End.]</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[Humberto-Desenho tecnico mecanico – T1, Elcio Dec.-Desenho tecnico mecanico – T2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[Suzanny-Metalografia, Rachel-Trat. Termicos, Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos]</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[J. Paulo S.-Tec. Mat. Não Metal., Anderson-Tornearia, Victor-Ajustagem, Anderson-Metrologia 1]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1NA.xlsx
+++ b/data/turm/MEC-1NA.xlsx
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Clesidson-Elet. Dig. Bas., Joel L.-T. M. Metalicos, Victor-Ajustagem, Aselmo-Manut. Mot. End.]</t>
+          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos, Clesidson-Elet. Dig. Bas.]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -995,17 +995,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Rachel-Trat. Termicos, Anderson-Tornearia, Gisele-E. D. N. D., Anderson-Metrologia 1]</t>
+          <t>[-, Victor-Ajustagem, -, -]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[J. Paulo S.-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Suzanny-Metalografia, Victor-Ajustagem]</t>
+          <t>Gilberto-M.T.R</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tiago P.-M.T</t>
+          <t>[J. Paulo S.-Tec. Mat. Não Metal., Gisele-E. D. N. D., Suzanny-Metalografia, Aselmo-Manut. Mot. End.]</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Clesidson-Elet. Dig. Bas., Joel L.-T. M. Metalicos, Victor-Ajustagem, Aselmo-Manut. Mot. End.]</t>
+          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos, Clesidson-Elet. Dig. Bas.]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,17 +1027,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Rachel-Trat. Termicos, Anderson-Tornearia, Gisele-E. D. N. D., Anderson-Metrologia 1]</t>
+          <t>[Rachel-Trat. Termicos, Victor-Ajustagem, Anderson-Tornearia, Anderson-Metrologia 1]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Rachel-Trat. Termicos, Victor-Ajustagem]</t>
+          <t>Tiago P.-M.T</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tiago P.-M.T</t>
+          <t>[J. Paulo S.-Tec. Mat. Não Metal., Gisele-E. D. N. D., Suzanny-Metalografia, Aselmo-Manut. Mot. End.]</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Clesidson-Elet. Dig. Bas., J. Paulo S.-Tec. Mat. Não Metal., Joel L.-T. M. Metalicos, Aselmo-Manut. Mot. End.]</t>
+          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos, Clesidson-Elet. Dig. Bas.]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,17 +1059,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Valmir-Tec. Mat. Não Metal., Anderson-Tornearia, Gisele-E. D. N. D., Anderson-Metrologia 1]</t>
+          <t>[Rachel-Trat. Termicos, Victor-Ajustagem, Anderson-Tornearia, Anderson-Metrologia 1]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Rachel-Trat. Termicos, Suzanny-Metalografia]</t>
+          <t>Tiago P.-M.T</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-, -, Suzanny-Metalografia, -]</t>
+          <t>[J. Paulo S.-Tec. Mat. Não Metal., Gisele-E. D. N. D., Suzanny-Metalografia, Aselmo-Manut. Mot. End.]</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Clesidson-Elet. Dig. Bas., J. Paulo S.-Tec. Mat. Não Metal., Joel L.-T. M. Metalicos, Aselmo-Manut. Mot. End.]</t>
+          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos, Clesidson-Elet. Dig. Bas.]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1091,17 +1091,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Valmir-Tec. Mat. Não Metal., Anderson-Tornearia, Gisele-E. D. N. D., Anderson-Metrologia 1]</t>
+          <t>[Rachel-Trat. Termicos, Victor-Ajustagem, Anderson-Tornearia, Anderson-Metrologia 1]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[J. Paulo S.-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Suzanny-Metalografia, -]</t>
+          <t>[Anderson-Tornearia, -, Anderson-Metrologia 1, Rachel-Trat. Termicos]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R</t>
+          <t>[J. Paulo S.-Tec. Mat. Não Metal., Gisele-E. D. N. D., Suzanny-Metalografia, Aselmo-Manut. Mot. End.]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1NA.xlsx
+++ b/data/turm/MEC-1NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos, Clesidson-Elet. Dig. Bas.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[-, Victor-Ajustagem, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[J. Paulo S.-Tec. Mat. Não Metal., Gisele-E. D. N. D., Suzanny-Metalografia, Aselmo-Manut. Mot. End.]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos, Clesidson-Elet. Dig. Bas.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Rachel-Trat. Termicos, Victor-Ajustagem, Anderson-Tornearia, Anderson-Metrologia 1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tiago P.-M.T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[J. Paulo S.-Tec. Mat. Não Metal., Gisele-E. D. N. D., Suzanny-Metalografia, Aselmo-Manut. Mot. End.]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos, Clesidson-Elet. Dig. Bas.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Rachel-Trat. Termicos, Victor-Ajustagem, Anderson-Tornearia, Anderson-Metrologia 1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tiago P.-M.T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[J. Paulo S.-Tec. Mat. Não Metal., Gisele-E. D. N. D., Suzanny-Metalografia, Aselmo-Manut. Mot. End.]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Valmir-Tec. Mat. Não Metal., Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos, Clesidson-Elet. Dig. Bas.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Rachel-Trat. Termicos, Victor-Ajustagem, Anderson-Tornearia, Anderson-Metrologia 1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Anderson-Tornearia, -, Anderson-Metrologia 1, Rachel-Trat. Termicos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[J. Paulo S.-Tec. Mat. Não Metal., Gisele-E. D. N. D., Suzanny-Metalografia, Aselmo-Manut. Mot. End.]</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1NA.xlsx
+++ b/data/turm/MEC-1NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tiago P.-M.T</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rachel-Trat. Termicos, -, Suzanny-Metalografia, Valmir-Tec. Mat. Não Metal.]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor-Ajustagem, -, J. Paulo S.-Tec. Mat. Não Metal., Anderson-Tornearia]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-E. D. N. D., Joel L.-T. M. Metalicos, Anderson-Metrologia 1, Valmir-Tec. Mat. Não Metal.]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tiago P.-M.T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aselmo-Manut. Mot. End., Rachel-Trat. Termicos, Clesidson-Elet. Dig. Bas., J. Paulo S.-Tec. Mat. Não Metal.]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Comandos Eletricos, Clesidson-Elet. Dig. Bas., Valmir-Tec. Mat. Não Metal., Anderson-Tornearia]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-E. D. N. D., Joel L.-T. M. Metalicos, Suzanny-Metalografia, Victor-Ajustagem]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rachel-Trat. Termicos, Emerson-Comandos Eletricos, Aselmo-Manut. Mot. End., Anderson-Tornearia]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aselmo-Manut. Mot. End., Anderson-Tornearia, Suzanny-Metalografia, J. Paulo S.-Tec. Mat. Não Metal.]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos, -, Anderson-Metrologia 1]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Clesidson-Elet. Dig. Bas., Emerson-Comandos Eletricos, Gisele-E. D. N. D., Aselmo-Manut. Mot. End.]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-M.T.R</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Suzanny-Metalografia, -, Anderson-Metrologia 1, Rachel-Trat. Termicos]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Clesidson-Elet. Dig. Bas., Anderson-Metrologia 1, Valmir-Tec. Mat. Não Metal., Victor-Ajustagem]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-T. M. Metalicos, Gisele-E. D. N. D., J. Paulo S.-Tec. Mat. Não Metal., Victor-Ajustagem]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1NA.xlsx
+++ b/data/turm/MEC-1NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tiago P.-M.T</t>
+          <t>[Weslei-Des. Tec. Mec., -]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Rachel-Trat. Termicos, -, Suzanny-Metalografia, Valmir-Tec. Mat. Não Metal.]</t>
+          <t>[Emerson-Comandos Elétricos, Anselmo-Man. Mot. End., -, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Victor-Ajustagem, -, J. Paulo S.-Tec. Mat. Não Metal., Anderson-Tornearia]</t>
+          <t>Cleison-M.T.R</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Gisele-E. D. N. D., Joel L.-T. M. Metalicos, Anderson-Metrologia 1, Valmir-Tec. Mat. Não Metal.]</t>
+          <t>[-, Cleidson-Elet. Digit. Básica, -, -]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
+          <t>[Aline S. M.-T. Metalicos, Cleidson-Elet. Digit. Básica, Gisele-E. D. N. D., Ander. Edson-Tornearia]</t>
         </is>
       </c>
     </row>
@@ -1022,22 +1022,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Aselmo-Manut. Mot. End., Rachel-Trat. Termicos, Clesidson-Elet. Dig. Bas., J. Paulo S.-Tec. Mat. Não Metal.]</t>
+          <t>[Emerson-Comandos Elétricos, Anselmo-Man. Mot. End., Cleidson-Elet. Digit. Básica, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Emerson-Comandos Eletricos, Clesidson-Elet. Dig. Bas., Valmir-Tec. Mat. Não Metal., Anderson-Tornearia]</t>
+          <t>[-, Humberto-Des. Tec. Mec.]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Gisele-E. D. N. D., Joel L.-T. M. Metalicos, Suzanny-Metalografia, Victor-Ajustagem]</t>
+          <t>Tiago P.-M.T</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
+          <t>[Aline S. M.-T. Metalicos, Emerson-Comandos Elétricos, Gisele-E. D. N. D., Ander. Edson-Tornearia]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Rachel-Trat. Termicos, Emerson-Comandos Eletricos, Aselmo-Manut. Mot. End., Anderson-Tornearia]</t>
+          <t>[-, Weslei-Des. Tec. Mec.]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Aselmo-Manut. Mot. End., Anderson-Tornearia, Suzanny-Metalografia, J. Paulo S.-Tec. Mat. Não Metal.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Emerson-Comandos Eletricos, Joel L.-T. M. Metalicos, -, Anderson-Metrologia 1]</t>
+          <t>[-, Humberto-Des. Tec. Mec.]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Clesidson-Elet. Dig. Bas., Emerson-Comandos Eletricos, Gisele-E. D. N. D., Aselmo-Manut. Mot. End.]</t>
+          <t>[Weslei-Des. Tec. Mec., -]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
+          <t>[Anselmo-Man. Mot. End., Valmir-Calderaria, Cleidson-Elet. Digit. Básica, Ander. Edson-Tornearia]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Suzanny-Metalografia, -, Anderson-Metrologia 1, Rachel-Trat. Termicos]</t>
+          <t>[Aline S. M.-T. Metalicos, Anselmo-Man. Mot. End., Gisele-E. D. N. D., Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Clesidson-Elet. Dig. Bas., Anderson-Metrologia 1, Valmir-Tec. Mat. Não Metal., Victor-Ajustagem]</t>
+          <t>[-, Humberto-Des. Tec. Mec.]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Joel L.-T. M. Metalicos, Gisele-E. D. N. D., J. Paulo S.-Tec. Mat. Não Metal., Victor-Ajustagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Desenho tecnico mecanico – T2, Humberto-Desenho tecnico mecanico – T1]</t>
+          <t>[Aline S. M.-T. Metalicos, Emerson-Comandos Elétricos, Gisele-E. D. N. D., Ander. Edson-Tornearia]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1NA.xlsx
+++ b/data/turm/MEC-1NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Weslei-Des. Tec. Mec., -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Emerson-Comandos Elétricos, Anselmo-Man. Mot. End., -, Valmir-Calderaria]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cleison-M.T.R</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[-, Cleidson-Elet. Digit. Básica, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Aline S. M.-T. Metalicos, Cleidson-Elet. Digit. Básica, Gisele-E. D. N. D., Ander. Edson-Tornearia]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tiago P.-M.T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Emerson-Comandos Elétricos, Anselmo-Man. Mot. End., Cleidson-Elet. Digit. Básica, Valmir-Calderaria]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[-, Humberto-Des. Tec. Mec.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tiago P.-M.T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Aline S. M.-T. Metalicos, Emerson-Comandos Elétricos, Gisele-E. D. N. D., Ander. Edson-Tornearia]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[-, Weslei-Des. Tec. Mec.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,17 +1059,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[-, Humberto-Des. Tec. Mec.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Weslei-Des. Tec. Mec., -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Anselmo-Man. Mot. End., Valmir-Calderaria, Cleidson-Elet. Digit. Básica, Ander. Edson-Tornearia]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Aline S. M.-T. Metalicos, Anselmo-Man. Mot. End., Gisele-E. D. N. D., Valmir-Calderaria]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[-, Humberto-Des. Tec. Mec.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Aline S. M.-T. Metalicos, Emerson-Comandos Elétricos, Gisele-E. D. N. D., Ander. Edson-Tornearia]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
